--- a/题目一_信贷数据分析.xlsx
+++ b/题目一_信贷数据分析.xlsx
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R3" t="n">
         <v>3</v>
@@ -728,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
         <v>3</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
         <v>3</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R6" t="n">
         <v>3</v>
@@ -935,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R8" t="n">
         <v>3</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
@@ -1280,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R12" t="n">
         <v>3</v>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
         <v>3</v>
@@ -1487,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R16" t="n">
         <v>3</v>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R17" t="n">
         <v>3</v>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R20" t="n">
         <v>3</v>
@@ -1901,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R21" t="n">
         <v>3</v>
@@ -1970,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R22" t="n">
         <v>3</v>
@@ -2039,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -2108,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
@@ -2177,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R25" t="n">
         <v>3</v>
@@ -2246,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
@@ -2315,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R28" t="n">
         <v>3</v>
@@ -2453,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R29" t="n">
         <v>3</v>
@@ -2522,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R30" t="n">
         <v>3</v>
@@ -2591,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R31" t="n">
         <v>3</v>
@@ -2660,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
@@ -2729,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R33" t="n">
         <v>3</v>
@@ -2798,7 +2798,7 @@
         <v>11</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R35" t="n">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R36" t="n">
         <v>3</v>
@@ -3005,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
         <v>3</v>
@@ -3074,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R38" t="n">
         <v>3</v>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R39" t="n">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R40" t="n">
         <v>3</v>
@@ -3281,7 +3281,7 @@
         <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R41" t="n">
         <v>3</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
@@ -3419,7 +3419,7 @@
         <v>8</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R43" t="n">
         <v>3</v>
@@ -3488,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
         <v>3</v>
@@ -3557,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R45" t="n">
         <v>3</v>
@@ -3626,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R46" t="n">
         <v>3</v>
@@ -3695,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R47" t="n">
         <v>3</v>
@@ -3764,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R48" t="n">
         <v>3</v>
@@ -3833,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R49" t="n">
         <v>3</v>
@@ -3902,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R50" t="n">
         <v>3</v>
@@ -3971,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R51" t="n">
         <v>3</v>
@@ -4040,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R52" t="n">
         <v>3</v>
@@ -4109,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R53" t="n">
         <v>3</v>
@@ -4178,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R54" t="n">
         <v>3</v>
@@ -4247,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R55" t="n">
         <v>3</v>
@@ -4316,7 +4316,7 @@
         <v>10</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R56" t="n">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
         <v>3</v>
@@ -4454,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R58" t="n">
         <v>3</v>
@@ -4523,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R59" t="n">
         <v>3</v>
@@ -4592,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R60" t="n">
         <v>3</v>
@@ -4661,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R61" t="n">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>7</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R62" t="n">
         <v>3</v>
@@ -4799,7 +4799,7 @@
         <v>7</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R63" t="n">
         <v>2</v>
@@ -4868,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R64" t="n">
         <v>3</v>
@@ -4937,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R65" t="n">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R66" t="n">
         <v>2</v>
@@ -5075,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>2</v>
@@ -5144,7 +5144,7 @@
         <v>8</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R68" t="n">
         <v>2</v>
@@ -5213,7 +5213,7 @@
         <v>6</v>
       </c>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R69" t="n">
         <v>2</v>
@@ -5282,7 +5282,7 @@
         <v>9</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R70" t="n">
         <v>2</v>
@@ -5351,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R71" t="n">
         <v>2</v>
@@ -5420,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R72" t="n">
         <v>3</v>
@@ -5489,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R73" t="n">
         <v>2</v>
@@ -5558,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
@@ -5627,7 +5627,7 @@
         <v>9</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R75" t="n">
         <v>2</v>
@@ -5696,7 +5696,7 @@
         <v>12</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
         <v>2</v>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R77" t="n">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R78" t="n">
         <v>2</v>
@@ -5903,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R79" t="n">
         <v>2</v>
@@ -5972,7 +5972,7 @@
         <v>8</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R80" t="n">
         <v>2</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R81" t="n">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R82" t="n">
         <v>2</v>
@@ -6179,7 +6179,7 @@
         <v>6</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R83" t="n">
         <v>2</v>
@@ -6248,7 +6248,7 @@
         <v>8</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R84" t="n">
         <v>3</v>
@@ -6317,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R85" t="n">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>9</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R86" t="n">
         <v>2</v>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R87" t="n">
         <v>2</v>
@@ -6524,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R88" t="n">
         <v>2</v>
@@ -6593,7 +6593,7 @@
         <v>9</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R89" t="n">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R90" t="n">
         <v>2</v>
@@ -6731,7 +6731,7 @@
         <v>12</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R91" t="n">
         <v>2</v>
@@ -6800,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R92" t="n">
         <v>2</v>
@@ -6869,7 +6869,7 @@
         <v>2</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R93" t="n">
         <v>2</v>
@@ -6881,7 +6881,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -6938,7 +6938,7 @@
         <v>5</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R94" t="n">
         <v>2</v>
@@ -7007,7 +7007,7 @@
         <v>6</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R95" t="n">
         <v>2</v>
@@ -7076,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="Q96" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R96" t="n">
         <v>2</v>
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R97" t="n">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>5</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R98" t="n">
         <v>2</v>
@@ -7283,7 +7283,7 @@
         <v>8</v>
       </c>
       <c r="Q99" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R99" t="n">
         <v>2</v>
@@ -7352,7 +7352,7 @@
         <v>3</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R100" t="n">
         <v>2</v>
@@ -7364,7 +7364,7 @@
         <v>0.4</v>
       </c>
       <c r="U100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R101" t="n">
         <v>2</v>
@@ -7490,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R102" t="n">
         <v>1</v>
@@ -7559,7 +7559,7 @@
         <v>6</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R103" t="n">
         <v>2</v>
@@ -7628,7 +7628,7 @@
         <v>6</v>
       </c>
       <c r="Q104" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R104" t="n">
         <v>2</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R105" t="n">
         <v>1</v>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="Q106" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
@@ -7835,7 +7835,7 @@
         <v>9</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R107" t="n">
         <v>2</v>
@@ -7904,7 +7904,7 @@
         <v>6</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R108" t="n">
         <v>2</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R109" t="n">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>4</v>
       </c>
       <c r="Q110" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R110" t="n">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>8</v>
       </c>
       <c r="Q111" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R111" t="n">
         <v>1</v>
@@ -8180,7 +8180,7 @@
         <v>10</v>
       </c>
       <c r="Q112" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R112" t="n">
         <v>2</v>
@@ -8249,7 +8249,7 @@
         <v>2</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R113" t="n">
         <v>2</v>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R114" t="n">
         <v>2</v>
@@ -8387,7 +8387,7 @@
         <v>5</v>
       </c>
       <c r="Q115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R115" t="n">
         <v>2</v>
@@ -8399,7 +8399,7 @@
         <v>0.3484848484848485</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8456,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R116" t="n">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="Q117" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R117" t="n">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>2</v>
       </c>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R118" t="n">
         <v>2</v>
@@ -8663,7 +8663,7 @@
         <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R119" t="n">
         <v>1</v>
@@ -8732,7 +8732,7 @@
         <v>2</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R120" t="n">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R121" t="n">
         <v>1</v>
@@ -8870,7 +8870,7 @@
         <v>7</v>
       </c>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R122" t="n">
         <v>2</v>
@@ -8939,7 +8939,7 @@
         <v>6</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R123" t="n">
         <v>1</v>
@@ -9008,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="Q124" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R124" t="n">
         <v>1</v>
